--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -552,7 +552,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/DDCC-QR-Category-Usage-ValueSet</t>
+    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/DDCC-QR-Category-Usage-ValueSet</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -570,7 +570,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/DDCC-QR-Format-ValueSet</t>
+    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/DDCC-QR-Format-ValueSet</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1204,7 +1204,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
+  &lt;system value="https://worldhealthorganization.github.io/ddcc-rcs1/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
   &lt;code value="image"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1219,7 +1219,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
+  &lt;system value="https://worldhealthorganization.github.io/ddcc-rcs1/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
   &lt;code value="serialized"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1606,7 +1606,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.03125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="90.5234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocumentReferenceQR.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCDocumentReferenceQR.xlsx
@@ -552,7 +552,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/DDCC-QR-Category-Usage-ValueSet</t>
+    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Category-Usage-ValueSet</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -570,7 +570,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/DDCC-QR-Format-ValueSet</t>
+    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/DDCC-QR-Format-ValueSet</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1204,7 +1204,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://worldhealthorganization.github.io/ddcc-rcs1/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
+  &lt;system value="https://worldhealthorganization.github.io/ddcc/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
   &lt;code value="image"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1219,7 +1219,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://worldhealthorganization.github.io/ddcc-rcs1/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
+  &lt;system value="https://worldhealthorganization.github.io/ddcc/CodeSystem/DDCC-QR-Format-CodeSystem"/&gt;
   &lt;code value="serialized"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1606,7 +1606,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="74.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="90.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.9765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
